--- a/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,64 +43,73 @@
     <t>returned</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>pool</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>apart</t>
   </si>
   <si>
     <t>return</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>paid</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
     <t>interest</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>boring</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>missing</t>
+    <t>paint</t>
   </si>
   <si>
     <t>maybe</t>
@@ -109,99 +118,114 @@
     <t>junk</t>
   </si>
   <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>lasted</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>light</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>picture</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>hold</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>hold</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>smaller</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>way</t>
+    <t>though</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>look</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>product</t>
+    <t>two</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -211,31 +235,34 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>helicopter</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>elf</t>
-  </si>
-  <si>
-    <t>loved</t>
   </si>
   <si>
     <t>great</t>
@@ -611,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K3">
-        <v>0.7037037037037037</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9662162162162162</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K4">
-        <v>0.6307692307692307</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L4">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M4">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9436619718309859</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K5">
-        <v>0.4716981132075472</v>
+        <v>0.40625</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,16 +878,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K6">
-        <v>0.4375</v>
+        <v>0.3978494623655914</v>
       </c>
       <c r="L6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9368932038834952</v>
+        <v>0.9320388349514563</v>
       </c>
       <c r="C7">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K7">
-        <v>0.4285714285714285</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9318181818181818</v>
+        <v>0.9301075268817204</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K8">
-        <v>0.3763440860215054</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9130434782608695</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K9">
-        <v>0.3214285714285715</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9032258064516129</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C10">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K10">
         <v>0.2759336099585062</v>
@@ -1080,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8870967741935484</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K11">
-        <v>0.242467718794835</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L11">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>528</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,37 +1157,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8421052631578947</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="C12">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D12">
+      <c r="K12">
+        <v>0.2446483180428135</v>
+      </c>
+      <c r="L12">
         <v>80</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>15</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12">
-        <v>0.234375</v>
-      </c>
-      <c r="L12">
-        <v>15</v>
-      </c>
       <c r="M12">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>49</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K13">
-        <v>0.2262996941896024</v>
+        <v>0.2381635581061693</v>
       </c>
       <c r="L13">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="M13">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>253</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7592592592592593</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,31 +1275,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K14">
-        <v>0.1566858080393765</v>
+        <v>0.234375</v>
       </c>
       <c r="L14">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1028</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.734375</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,31 +1325,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K15">
-        <v>0.1385542168674699</v>
+        <v>0.1591468416735029</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>143</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.71875</v>
+        <v>0.734375</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K16">
-        <v>0.09749303621169916</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>324</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6825396825396826</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,31 +1425,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K17">
-        <v>0.07662337662337662</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L17">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="N17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1422</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6296296296296297</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K18">
-        <v>0.06134969325153374</v>
+        <v>0.07852044127190136</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="M18">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1071</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.625</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,7 +1525,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19">
+        <v>0.05959684487291849</v>
+      </c>
+      <c r="L19">
+        <v>68</v>
+      </c>
+      <c r="M19">
+        <v>68</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1073</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1506,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6229508196721312</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1524,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1558,13 +1609,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1576,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1584,13 +1635,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1602,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1610,13 +1661,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5357142857142857</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1628,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1636,13 +1687,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4909090909090909</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1654,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1662,13 +1713,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4834123222748815</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C26">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1680,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1688,7 +1739,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4761904761904762</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C27">
         <v>30</v>
@@ -1706,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1714,13 +1765,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4523809523809524</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1732,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1740,13 +1791,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4492753623188406</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1758,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1766,13 +1817,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4123711340206185</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1784,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1792,13 +1843,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4074074074074074</v>
+        <v>0.4360189573459716</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1810,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1818,13 +1869,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.396551724137931</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1836,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1844,13 +1895,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3796296296296297</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C33">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1862,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1870,13 +1921,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.375</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1888,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1899,10 +1950,10 @@
         <v>0.375</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1914,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1922,13 +1973,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3663366336633663</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C36">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D36">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1940,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>128</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1948,13 +1999,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3536585365853658</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1966,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1974,13 +2025,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3536231884057971</v>
+        <v>0.3613861386138614</v>
       </c>
       <c r="C38">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="D38">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1992,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>223</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2000,13 +2051,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2974683544303797</v>
+        <v>0.3608247422680412</v>
       </c>
       <c r="C39">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2018,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>222</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2026,13 +2077,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2891566265060241</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2044,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>59</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2052,13 +2103,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.234375</v>
+        <v>0.3012048192771085</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2070,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2078,13 +2129,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2297297297297297</v>
+        <v>0.2848101265822785</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2096,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>57</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2104,13 +2155,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2162162162162162</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2122,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2130,13 +2181,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.17</v>
+        <v>0.2567567567567567</v>
       </c>
       <c r="C44">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2148,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>166</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2156,13 +2207,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1680672268907563</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2174,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2182,13 +2233,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1550632911392405</v>
+        <v>0.2016806722689076</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2200,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>267</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2208,25 +2259,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1411764705882353</v>
+        <v>0.185</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E47">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2234,13 +2285,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1376811594202899</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C48">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2252,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>238</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2260,13 +2311,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2278,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2286,13 +2337,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09836065573770492</v>
+        <v>0.1550632911392405</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2304,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>165</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2312,13 +2363,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.09691629955947137</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2330,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>410</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2338,13 +2389,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.08517350157728706</v>
+        <v>0.1340579710144928</v>
       </c>
       <c r="C52">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2356,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>290</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2364,13 +2415,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08163265306122448</v>
+        <v>0.1338582677165354</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2382,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>180</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2390,25 +2441,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.07726597325408618</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="C54">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E54">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>621</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2416,13 +2467,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.05357142857142857</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2434,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>265</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2442,25 +2493,233 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.0366412213740458</v>
+        <v>0.09940652818991098</v>
       </c>
       <c r="C56">
+        <v>67</v>
+      </c>
+      <c r="D56">
+        <v>67</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.09289617486338798</v>
+      </c>
+      <c r="C57">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.07653061224489796</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.07255520504731862</v>
+      </c>
+      <c r="C59">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>23</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.04872389791183294</v>
+      </c>
+      <c r="C60">
+        <v>21</v>
+      </c>
+      <c r="D60">
         <v>24</v>
       </c>
-      <c r="D56">
-        <v>24</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>631</v>
+      <c r="E60">
+        <v>0.12</v>
+      </c>
+      <c r="F60">
+        <v>0.88</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.04597701149425287</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.03206106870229008</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>21</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.02471169686985173</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>0.06</v>
+      </c>
+      <c r="F64">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
